--- a/data/trans_orig/P14C23_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72978A30-0F92-4A27-A693-B1B6BD86A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90483EF3-24E4-40FD-AB3F-0FDD960FFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{653A1EC2-AE16-4BF6-8206-4227D002AF7D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DBF8EDE-FFFB-447F-BE41-11C003FA0B43}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,16 +74,16 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>55,06%</t>
+    <t>55,21%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -92,10 +92,10 @@
     <t>65,15%</t>
   </si>
   <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,280 +104,280 @@
     <t>25,99%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>29,86%</t>
   </si>
   <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
     <t>21,88%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>34,02%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>7,46%</t>
@@ -386,7 +386,7 @@
     <t>4,84%</t>
   </si>
   <si>
-    <t>11,3%</t>
+    <t>11,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE7A193-EA65-46A6-AE6E-5E53F64E379B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450F941-27A3-4BE5-91A5-7CC015761B31}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C23_2015-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C23_2015-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90483EF3-24E4-40FD-AB3F-0FDD960FFA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7BA22EE-A4B0-4315-9423-2A00896E14DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DBF8EDE-FFFB-447F-BE41-11C003FA0B43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD6AEBCE-D9FC-4900-A6FB-CB73BCCB141B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
-    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2015 (Tasa respuesta: 4,16%)</t>
+    <t>Población según el tiempo de diagnóstico del trastornos depresivos en 2016 (Tasa respuesta: 4,16%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>25,99%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>29,86%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>24,04%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,82 +167,82 @@
     <t>60,33%</t>
   </si>
   <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>67,39%</t>
   </si>
   <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>26,91%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
   </si>
   <si>
     <t>24,33%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -257,19 +257,19 @@
     <t>54,33%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
   </si>
   <si>
     <t>64,29%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>0%</t>
@@ -281,112 +281,112 @@
     <t>36,24%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>46,76%</t>
+    <t>43,89%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>38,34%</t>
+    <t>31,87%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
   </si>
   <si>
     <t>65,39%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
   </si>
   <si>
     <t>25,17%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>27,15%</t>
   </si>
   <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -801,7 +801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450F941-27A3-4BE5-91A5-7CC015761B31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE4A0F0-D82D-4BC7-B797-69AC6DD220AD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
